--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1451.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1451.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.586574806403501</v>
+        <v>1.190810322761536</v>
       </c>
       <c r="B1">
-        <v>1.829581982967371</v>
+        <v>2.284543037414551</v>
       </c>
       <c r="C1">
-        <v>2.305578864403443</v>
+        <v>4.596956253051758</v>
       </c>
       <c r="D1">
-        <v>3.574604774475421</v>
+        <v>3.431880235671997</v>
       </c>
       <c r="E1">
-        <v>0.6723885201011498</v>
+        <v>1.196469187736511</v>
       </c>
     </row>
   </sheetData>
